--- a/REVER_DailyTracker_20201005.xlsx
+++ b/REVER_DailyTracker_20201005.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\Daily_Tracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eswar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD45646-1B5B-4768-BFD2-EEFE901E1E41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE09CD5B-D4D9-4588-9BA1-B6DE05FB3FFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="31">
   <si>
     <t>Task</t>
   </si>
@@ -124,7 +124,10 @@
     <t>Project set up</t>
   </si>
   <si>
-    <t xml:space="preserve">Application- Login page design and   Front page layout design       </t>
+    <t>Holiday</t>
+  </si>
+  <si>
+    <t>Week off</t>
   </si>
 </sst>
 </file>
@@ -134,7 +137,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,8 +181,16 @@
       <name val="Calibri"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,6 +224,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,7 +290,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -350,9 +367,21 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,15 +703,15 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="78.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="78.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -706,7 +735,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -804,18 +833,18 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -918,15 +947,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1028,15 +1057,15 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1300,15 +1329,15 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1407,19 +1436,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E9:E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1466,27 +1495,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="28.8">
-      <c r="A3" s="20">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21">
-        <v>44109</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="22">
-        <v>0.3</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1"/>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
     <row r="5" spans="1:7" s="4" customFormat="1"/>
     <row r="6" spans="1:7" s="4" customFormat="1"/>
@@ -1543,15 +1552,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1654,15 +1663,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1688,7 +1697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8">
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1779,15 +1788,15 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
@@ -1914,15 +1923,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2019,21 +2028,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2059,7 +2068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.2">
+    <row r="2" spans="1:7" ht="45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2072,26 +2081,80 @@
       <c r="D2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="37">
         <v>0.5</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="31">
+        <v>44106</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="31">
+        <v>44107</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="31">
+        <v>44108</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+    </row>
+    <row r="6" spans="1:7" ht="45">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="31">
+        <v>44109</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="39">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="40"/>
+    </row>
     <row r="7" spans="1:7" s="4" customFormat="1"/>
     <row r="8" spans="1:7" s="4" customFormat="1"/>
     <row r="9" spans="1:7" s="4" customFormat="1"/>
@@ -2105,32 +2168,35 @@
     <row r="17" spans="2:3" s="4" customFormat="1"/>
     <row r="18" spans="2:3" s="4" customFormat="1"/>
     <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
+    <row r="20" spans="2:3" s="4" customFormat="1"/>
+    <row r="21" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3" s="4" customFormat="1"/>
+    <row r="25" spans="2:3">
+      <c r="C25" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="8"/>
+      <c r="C26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
+    <row r="27" spans="2:3">
+      <c r="B27" s="9"/>
+      <c r="C27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
+    <row r="28" spans="2:3">
+      <c r="B28" s="10"/>
+      <c r="C28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
+    <row r="29" spans="2:3">
+      <c r="B29" s="11"/>
+      <c r="C29" t="s">
         <v>10</v>
       </c>
     </row>

--- a/REVER_DailyTracker_20201005.xlsx
+++ b/REVER_DailyTracker_20201005.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eswar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE09CD5B-D4D9-4588-9BA1-B6DE05FB3FFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C356F24-DA0D-4E38-B4F2-5A625E8EF3C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="33">
   <si>
     <t>Task</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>Week off</t>
+  </si>
+  <si>
+    <t>Soniya</t>
+  </si>
+  <si>
+    <t>Creating Setup file</t>
   </si>
 </sst>
 </file>
@@ -179,7 +185,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -290,7 +296,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -382,6 +388,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,15 +715,15 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="78.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="78.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -735,7 +747,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -836,15 +848,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -947,15 +959,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1057,15 +1069,15 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1329,15 +1341,15 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1440,15 +1452,15 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1552,15 +1564,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1663,15 +1675,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1697,7 +1709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7" ht="28.8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1784,19 +1796,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
@@ -1862,6 +1874,183 @@
       <c r="F3" s="25" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="31">
+        <v>44106</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="31">
+        <v>44107</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="31">
+        <v>44108</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="31">
+        <v>44109</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="40"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
@@ -1915,23 +2104,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G26"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A3" sqref="A3:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1957,118 +2146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
-  <dimension ref="A1:G29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="45">
+    <row r="2" spans="1:7" ht="43.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2134,7 +2212,7 @@
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
     </row>
-    <row r="6" spans="1:7" ht="45">
+    <row r="6" spans="1:7" ht="43.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>

--- a/REVER_DailyTracker_20201005.xlsx
+++ b/REVER_DailyTracker_20201005.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C356F24-DA0D-4E38-B4F2-5A625E8EF3C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7926DC5-A32E-4443-9686-0B1BB5BBA616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="36">
   <si>
     <t>Task</t>
   </si>
@@ -134,6 +134,16 @@
   </si>
   <si>
     <t>Creating Setup file</t>
+  </si>
+  <si>
+    <t>1. DRS-Weekly correction received and completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Return Credit Correction received and completed </t>
+  </si>
+  <si>
+    <t>Daily Task of Scheduling Report has been completed for download and upload (11 files 
+except one is having upload issue which under progress by Mohan san)</t>
   </si>
 </sst>
 </file>
@@ -296,7 +306,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -393,6 +403,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -711,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -720,7 +736,7 @@
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="78.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
     <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
@@ -789,9 +805,57 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="45">
+        <v>44109</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="46">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1">
+      <c r="D5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="46">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A6" s="47">
+        <v>4</v>
+      </c>
+      <c r="B6" s="45">
+        <v>44109</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="46">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="7" spans="1:7" s="4" customFormat="1"/>
     <row r="8" spans="1:7" s="4" customFormat="1"/>
     <row r="9" spans="1:7" s="4" customFormat="1"/>
@@ -1796,7 +1860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>

--- a/REVER_DailyTracker_20201005.xlsx
+++ b/REVER_DailyTracker_20201005.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7926DC5-A32E-4443-9686-0B1BB5BBA616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7A3C2A-228E-4B94-9054-859DC935A22A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="37">
   <si>
     <t>Task</t>
   </si>
@@ -144,6 +144,9 @@
   <si>
     <t>Daily Task of Scheduling Report has been completed for download and upload (11 files 
 except one is having upload issue which under progress by Mohan san)</t>
+  </si>
+  <si>
+    <t>DRS Count - Saw Discount changes and Issue</t>
   </si>
 </sst>
 </file>
@@ -153,7 +156,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +207,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="8">
@@ -306,7 +315,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -409,6 +418,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -727,19 +739,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="82.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="82.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -763,7 +775,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -836,7 +848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A6" s="47">
         <v>4</v>
       </c>
@@ -912,15 +924,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1023,15 +1035,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1129,19 +1141,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1210,12 +1222,24 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33">
+        <v>44109</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>5</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1">
@@ -1405,15 +1429,15 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1516,15 +1540,15 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1628,15 +1652,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1739,15 +1763,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1773,7 +1797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8">
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1864,15 +1888,15 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
@@ -2065,15 +2089,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2176,15 +2200,15 @@
       <selection activeCell="A3" sqref="A3:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2210,7 +2234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.2">
+    <row r="2" spans="1:7" ht="45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2276,7 +2300,7 @@
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
     </row>
-    <row r="6" spans="1:7" ht="43.2">
+    <row r="6" spans="1:7" ht="45">
       <c r="A6" s="1">
         <v>5</v>
       </c>

--- a/REVER_DailyTracker_20201005.xlsx
+++ b/REVER_DailyTracker_20201005.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7A3C2A-228E-4B94-9054-859DC935A22A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF845A3D-21B0-4127-8C40-0637715C5D50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="42">
   <si>
     <t>Task</t>
   </si>
@@ -147,14 +147,30 @@
   </si>
   <si>
     <t>DRS Count - Saw Discount changes and Issue</t>
+  </si>
+  <si>
+    <t>QMVAR-RPA</t>
+  </si>
+  <si>
+    <t>InvoiceUpdate IW/OW error correction</t>
+  </si>
+  <si>
+    <t>HAYAAI-B2B</t>
+  </si>
+  <si>
+    <t>New API for inserting job sheet details for Pickup</t>
+  </si>
+  <si>
+    <t>wip</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="167" formatCode="[$-14009]dd\-mm\-yyyy;@"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -315,7 +331,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -422,6 +438,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -743,15 +767,15 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="82.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="82.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -775,7 +799,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -848,7 +872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="30">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="A6" s="47">
         <v>4</v>
       </c>
@@ -924,15 +948,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1035,15 +1059,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1141,19 +1165,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1425,19 +1449,294 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="53" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="51">
+        <v>44105</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="51">
+        <v>44109</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1">
+      <c r="B4" s="52"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1">
+      <c r="B5" s="52"/>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1">
+      <c r="B6" s="52"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1">
+      <c r="B7" s="52"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="B8" s="52"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="B9" s="52"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1">
+      <c r="B10" s="52"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1">
+      <c r="B11" s="52"/>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="B12" s="52"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1">
+      <c r="B13" s="52"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1">
+      <c r="B14" s="52"/>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1">
+      <c r="B15" s="52"/>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1">
+      <c r="B16" s="52"/>
+    </row>
+    <row r="17" spans="2:3" s="4" customFormat="1">
+      <c r="B17" s="52"/>
+    </row>
+    <row r="18" spans="2:3" s="4" customFormat="1">
+      <c r="B18" s="52"/>
+    </row>
+    <row r="19" spans="2:3" s="4" customFormat="1">
+      <c r="B19" s="52"/>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="54"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="55"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="56"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="57"/>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.6" customHeight="1">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <v>44105</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:3">
+      <c r="C19" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="8"/>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="9"/>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="10"/>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="11"/>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1532,23 +1831,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G23"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1574,126 +1873,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A2" s="20">
+    <row r="2" spans="1:7" ht="28.8">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="21">
         <v>44105</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="22">
-        <v>1</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="19" spans="2:3">
-      <c r="C19" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="8"/>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="9"/>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="10"/>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="11"/>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="28">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -1755,23 +1956,224 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.6" customHeight="1">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <v>44105</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="26">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21">
+        <v>44105</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="22">
+        <v>1</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="31">
+        <v>44106</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="31">
+        <v>44107</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="31">
+        <v>44108</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="31">
+        <v>44109</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="40"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1797,28 +2199,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21">
-        <v>44105</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="28">
-        <v>1</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>18</v>
-      </c>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -1880,318 +2268,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A2" s="20">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21">
-        <v>44105</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="22">
-        <v>1</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="26">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21">
-        <v>44105</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="22">
-        <v>1</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="31">
-        <v>44106</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="31">
-        <v>44107</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="31">
-        <v>44108</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="31">
-        <v>44109</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="40"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
   <dimension ref="A1:G29"/>
@@ -2200,15 +2276,15 @@
       <selection activeCell="A3" sqref="A3:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2234,7 +2310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45">
+    <row r="2" spans="1:7" ht="43.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2300,7 +2376,7 @@
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
     </row>
-    <row r="6" spans="1:7" ht="45">
+    <row r="6" spans="1:7" ht="43.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
